--- a/data/trans_orig/IP16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B01EE814-BD87-4B55-8576-B0E8E06C36D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AA5798-44ED-48C5-B551-204A25BAD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8EC0320-5F67-45D1-9759-5D3586FC7E53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6AFADC2-84AE-44F9-8519-3C6A8C1C7114}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -104,43 +104,43 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>20,73%</t>
+    <t>19,64%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>17,4%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>79,27%</t>
+    <t>80,36%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>82,6%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>93,88%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -149,55 +149,55 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -206,49 +206,49 @@
     <t>8,18%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>17,52%</t>
+    <t>16,38%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>82,48%</t>
+    <t>83,62%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>7,27%</t>
@@ -257,586 +257,580 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>98,67%</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CC05B5-AF9F-4075-9310-C9617D07E651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4532B47C-E497-4C29-9283-601C01B1E0AB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2149,7 +2143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A01664E-9AAA-4C30-A4BA-45405A653340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A18C8DC-DA7E-4E45-8271-190CCAF795A2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2723,10 +2717,10 @@
         <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2735,13 +2729,13 @@
         <v>1445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2750,13 +2744,13 @@
         <v>3408</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2765,13 @@
         <v>37470</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -2786,10 +2780,10 @@
         <v>34959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2801,13 +2795,13 @@
         <v>72428</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2869,13 @@
         <v>6070</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2890,13 +2884,13 @@
         <v>6564</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2905,13 +2899,13 @@
         <v>12634</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2920,13 @@
         <v>151896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -2941,13 +2935,13 @@
         <v>140657</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -2956,13 +2950,13 @@
         <v>292553</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0E2680-9214-4B47-8F1E-DDC6D1200EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBAEE1-70B5-49ED-9A3E-F31D2BC4B437}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3055,7 +3049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3293,13 @@
         <v>891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3314,13 +3308,13 @@
         <v>765</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3329,13 +3323,13 @@
         <v>1656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,10 +3344,10 @@
         <v>7895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3365,10 +3359,10 @@
         <v>14926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3380,10 +3374,10 @@
         <v>22821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3454,13 +3448,13 @@
         <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3469,13 +3463,13 @@
         <v>910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3484,13 +3478,13 @@
         <v>2320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,10 +3499,10 @@
         <v>84210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3520,10 +3514,10 @@
         <v>82069</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3535,13 +3529,13 @@
         <v>166279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3603,13 @@
         <v>3908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3624,13 +3618,13 @@
         <v>705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3639,13 +3633,13 @@
         <v>4614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3654,13 @@
         <v>24962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3675,10 +3669,10 @@
         <v>28087</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3690,13 +3684,13 @@
         <v>53047</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3758,13 @@
         <v>6210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3779,13 +3773,13 @@
         <v>2380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3794,13 +3788,13 @@
         <v>8590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3809,13 @@
         <v>117066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -3830,13 +3824,13 @@
         <v>125081</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -3845,13 +3839,13 @@
         <v>242147</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9030E7-AFCC-4C66-9E29-71B10340D0E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ADFA38-7366-40E7-9CA6-DB55BD2C1552}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3944,7 +3938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4188,13 +4182,13 @@
         <v>1747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4209,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4218,13 +4212,13 @@
         <v>1747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,10 +4233,10 @@
         <v>12619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4257,7 +4251,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4269,10 +4263,10 @@
         <v>24435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4346,10 +4340,10 @@
         <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4358,13 +4352,13 @@
         <v>2396</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4373,13 +4367,13 @@
         <v>6364</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,10 +4391,10 @@
         <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -4409,13 +4403,13 @@
         <v>98845</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
@@ -4424,13 +4418,13 @@
         <v>209294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4662,13 @@
         <v>2825</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4683,13 +4677,13 @@
         <v>8539</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4698,13 @@
         <v>166822</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -4719,13 +4713,13 @@
         <v>151587</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -4734,13 +4728,13 @@
         <v>318409</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AA5798-44ED-48C5-B551-204A25BAD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E59C035-7440-4058-A50C-484B669CD485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6AFADC2-84AE-44F9-8519-3C6A8C1C7114}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{050FC794-42ED-4A11-A799-659D4805A052}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="262">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,769 +68,763 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>5,65%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4532B47C-E497-4C29-9283-601C01B1E0AB}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073E1539-5347-477C-AE75-92C58421CE98}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1360,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1375,81 +1369,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1343</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2587</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>20803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18915</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>39718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,151 +1456,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>1343</v>
+        <v>4831</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>1245</v>
+        <v>6237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>2587</v>
+        <v>11068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>18915</v>
+        <v>75876</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7">
-        <v>20803</v>
+        <v>81432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="N8" s="7">
-        <v>39718</v>
+        <v>157308</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,153 +1611,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>6237</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>4831</v>
+        <v>2885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>11068</v>
+        <v>4085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>81432</v>
+        <v>21351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>75876</v>
+        <v>32381</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="N11" s="7">
-        <v>157308</v>
+        <v>53731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,153 +1766,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>2885</v>
+        <v>7275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>1200</v>
+        <v>10465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>4085</v>
+        <v>17740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>32381</v>
+        <v>118030</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="I14" s="7">
-        <v>21351</v>
+        <v>132728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
+        <v>377</v>
+      </c>
+      <c r="N14" s="7">
+        <v>250758</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="7">
-        <v>53731</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,216 +1921,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10465</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="7">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17740</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>200</v>
-      </c>
-      <c r="D17" s="7">
-        <v>133454</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="7">
-        <v>178</v>
-      </c>
-      <c r="I17" s="7">
-        <v>118030</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="7">
-        <v>378</v>
-      </c>
-      <c r="N17" s="7">
-        <v>251484</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2143,8 +1987,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A18C8DC-DA7E-4E45-8271-190CCAF795A2}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0249902C-CCD7-44BC-9CEE-751AC75B0050}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2160,7 +2004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2261,88 +2105,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1379</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>607</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1986</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21202</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16893</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>38095</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,147 +2207,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22581</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17500</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <v>40081</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>607</v>
+        <v>3740</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1379</v>
+        <v>3499</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>1986</v>
+        <v>7239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
-        <v>16893</v>
+        <v>84496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>21202</v>
+        <v>97535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="N8" s="7">
-        <v>38095</v>
+        <v>182031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,153 +2362,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>17500</v>
+        <v>88236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="I9" s="7">
-        <v>22581</v>
+        <v>101034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="N9" s="7">
-        <v>40081</v>
+        <v>189270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3499</v>
+        <v>1445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1963</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3408</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3740</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7239</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>97535</v>
+        <v>34959</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>84496</v>
+        <v>37470</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="7">
+        <v>100</v>
+      </c>
+      <c r="N11" s="7">
+        <v>72428</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" s="7">
-        <v>262</v>
-      </c>
-      <c r="N11" s="7">
-        <v>182031</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,153 +2517,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>1963</v>
+        <v>6564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1445</v>
+        <v>6070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>3408</v>
+        <v>12634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>37470</v>
+        <v>140657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="I14" s="7">
-        <v>34959</v>
+        <v>151896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="N14" s="7">
-        <v>72428</v>
+        <v>292553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,216 +2672,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>39433</v>
+        <v>147221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>36404</v>
+        <v>157966</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>434</v>
       </c>
       <c r="N15" s="7">
-        <v>75836</v>
+        <v>305187</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6070</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6564</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" s="7">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12634</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>214</v>
-      </c>
-      <c r="D17" s="7">
-        <v>151896</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="7">
-        <v>202</v>
-      </c>
-      <c r="I17" s="7">
-        <v>140657</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M17" s="7">
-        <v>416</v>
-      </c>
-      <c r="N17" s="7">
-        <v>292553</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>222</v>
-      </c>
-      <c r="D18" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147221</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>434</v>
-      </c>
-      <c r="N18" s="7">
-        <v>305187</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3032,8 +2738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBAEE1-70B5-49ED-9A3E-F31D2BC4B437}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F84B7-A235-44C9-B44E-4F3E0F9FE265}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3049,7 +2755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3150,88 +2856,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>765</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>891</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1656</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14926</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7895</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22821</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,147 +2958,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8786</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24477</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>765</v>
+        <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1656</v>
+        <v>2320</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7">
-        <v>7895</v>
+        <v>82069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>14926</v>
+        <v>84210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="N8" s="7">
-        <v>22821</v>
+        <v>166279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,153 +3113,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N9" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1410</v>
+        <v>705</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>910</v>
+        <v>3908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2320</v>
+        <v>4614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>84210</v>
+        <v>28087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>82069</v>
+        <v>24962</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7">
-        <v>166279</v>
+        <v>53047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,153 +3268,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3908</v>
+        <v>2380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>705</v>
+        <v>6210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>4614</v>
+        <v>8590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>24962</v>
+        <v>125081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="I14" s="7">
-        <v>28087</v>
+        <v>117066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="N14" s="7">
-        <v>53047</v>
+        <v>242147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,216 +3423,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6210</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2380</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8590</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>170</v>
-      </c>
-      <c r="D17" s="7">
-        <v>117066</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>125081</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M17" s="7">
-        <v>358</v>
-      </c>
-      <c r="N17" s="7">
-        <v>242147</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>371</v>
-      </c>
-      <c r="N18" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3921,8 +3489,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ADFA38-7366-40E7-9CA6-DB55BD2C1552}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B56125-B6CA-49B1-B7ED-3D40B14BACA7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3938,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4041,86 +3609,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1979</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1979</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15230</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13688</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>28918</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,147 +3709,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1747</v>
+        <v>2475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>1747</v>
+        <v>6576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D8" s="7">
-        <v>12619</v>
+        <v>118368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I8" s="7">
-        <v>11816</v>
+        <v>115922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="N8" s="7">
-        <v>24435</v>
+        <v>234291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,153 +3864,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3968</v>
+        <v>422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2396</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>6364</v>
+        <v>422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>110449</v>
+        <v>41220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>98845</v>
+        <v>46511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>209294</v>
+        <v>87731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,153 +4019,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>428</v>
+        <v>6081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>428</v>
+        <v>8977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>43754</v>
+        <v>174819</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>40927</v>
+        <v>176120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
-        <v>121</v>
+        <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>84681</v>
+        <v>350939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,216 +4174,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5715</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2825</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8539</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>241</v>
-      </c>
-      <c r="D17" s="7">
-        <v>166822</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="7">
-        <v>222</v>
-      </c>
-      <c r="I17" s="7">
-        <v>151587</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M17" s="7">
-        <v>463</v>
-      </c>
-      <c r="N17" s="7">
-        <v>318409</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
